--- a/config_debug/act_027_qyzl_config.xlsx
+++ b/config_debug/act_027_qyzl_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_8.3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="76">
   <si>
     <t>index</t>
   </si>
@@ -42,9 +42,6 @@
   </si>
   <si>
     <t>累计消耗10万金币</t>
-  </si>
-  <si>
-    <t>ty_icon_jb_6y</t>
   </si>
   <si>
     <t>500金币</t>
@@ -261,12 +258,41 @@
     <t>1.活动时间：8月3日08:00:00—8月30日23:59:59。</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
+  <si>
+    <t>累计消耗1万金币</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ty_icon_jb_6y</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ty_icon_jb_6y</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00金币</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -318,6 +344,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -353,7 +387,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -395,6 +429,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -456,7 +493,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -491,7 +528,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -700,10 +737,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I33"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -736,7 +773,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -746,16 +783,15 @@
       <c r="C2" s="1">
         <v>0</v>
       </c>
-      <c r="D2" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" s="12"/>
+      <c r="D2" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
@@ -767,14 +803,14 @@
       <c r="C3" s="1">
         <v>0</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>10</v>
+      <c r="D3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>73</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="I3" s="12"/>
     </row>
@@ -783,19 +819,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I4" s="12"/>
     </row>
@@ -804,19 +840,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="9" t="s">
         <v>13</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>16</v>
       </c>
       <c r="I5" s="12"/>
     </row>
@@ -831,13 +867,13 @@
         <v>0</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I6" s="12"/>
     </row>
@@ -846,42 +882,42 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="I7" s="13"/>
+        <v>12</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" s="12"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="I8" s="12"/>
+        <v>12</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" s="13"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
@@ -894,13 +930,13 @@
         <v>0</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I9" s="12"/>
     </row>
@@ -909,19 +945,19 @@
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="I10" s="12"/>
     </row>
@@ -930,19 +966,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I11" s="12"/>
     </row>
@@ -957,13 +993,13 @@
         <v>0</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I12" s="12"/>
     </row>
@@ -972,19 +1008,19 @@
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I13" s="12"/>
     </row>
@@ -993,19 +1029,19 @@
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I14" s="12"/>
     </row>
@@ -1020,13 +1056,13 @@
         <v>0</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="I15" s="12"/>
     </row>
@@ -1035,19 +1071,19 @@
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="I16" s="12"/>
     </row>
@@ -1056,19 +1092,19 @@
         <v>16</v>
       </c>
       <c r="B17" s="1">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="I17" s="12"/>
     </row>
@@ -1077,19 +1113,19 @@
         <v>17</v>
       </c>
       <c r="B18" s="1">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>43</v>
+        <v>39</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="I18" s="12"/>
     </row>
@@ -1098,19 +1134,19 @@
         <v>18</v>
       </c>
       <c r="B19" s="1">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E19" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="F19" s="9" t="s">
         <v>43</v>
-      </c>
-      <c r="F19" s="9" t="s">
-        <v>46</v>
       </c>
       <c r="I19" s="12"/>
     </row>
@@ -1119,19 +1155,19 @@
         <v>19</v>
       </c>
       <c r="B20" s="1">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="I20" s="12"/>
     </row>
@@ -1140,19 +1176,19 @@
         <v>20</v>
       </c>
       <c r="B21" s="1">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="I21" s="12"/>
     </row>
@@ -1161,19 +1197,19 @@
         <v>21</v>
       </c>
       <c r="B22" s="1">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="I22" s="12"/>
     </row>
@@ -1182,29 +1218,41 @@
         <v>22</v>
       </c>
       <c r="B23" s="1">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C23" s="1">
+        <v>1</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="I23" s="12"/>
+    </row>
+    <row r="24" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1">
+        <v>15</v>
+      </c>
+      <c r="C24" s="1">
         <v>0</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="D24" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="F24" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="E23" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="F23" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="I23" s="12"/>
-    </row>
-    <row r="24" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="9"/>
       <c r="I24" s="12"/>
     </row>
     <row r="25" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -1288,10 +1336,19 @@
       <c r="F33" s="9"/>
       <c r="I33" s="12"/>
     </row>
+    <row r="34" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="9"/>
+      <c r="I34" s="12"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1316,31 +1373,31 @@
   <sheetData>
     <row r="1" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>63</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
@@ -1348,10 +1405,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D2" s="6">
         <v>1000698</v>
@@ -1366,10 +1423,10 @@
         <v>1627948800</v>
       </c>
       <c r="H2" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="I2" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1382,7 +1439,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
@@ -1393,10 +1450,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" x14ac:dyDescent="0.15">
@@ -1404,7 +1461,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" x14ac:dyDescent="0.15">
@@ -1412,7 +1469,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" x14ac:dyDescent="0.15">
@@ -1420,7 +1477,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="17.25" x14ac:dyDescent="0.15">
@@ -1428,7 +1485,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="17.25" x14ac:dyDescent="0.15">
@@ -1436,7 +1493,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/config_debug/act_027_qyzl_config.xlsx
+++ b/config_debug/act_027_qyzl_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_8.31\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="1" r:id="rId1"/>
@@ -154,6 +154,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -164,6 +165,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -253,10 +255,6 @@
   </si>
   <si>
     <t>5.活动结束后，未领取的奖励视为自动放弃。</t>
-  </si>
-  <si>
-    <t>1.活动时间：8月3日08:00:00—8月30日23:59:59。</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>累计消耗1万金币</t>
@@ -286,6 +284,10 @@
       <t>00金币</t>
     </r>
     <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.活动时间：8月31日08:00:00—9月27日23:59:59。</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -304,18 +306,21 @@
       <sz val="10.5"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF454545"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -323,17 +328,20 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -784,13 +792,13 @@
         <v>0</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E2" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="F2" s="14" t="s">
         <v>74</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -807,7 +815,7 @@
         <v>6</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F3" s="9" t="s">
         <v>7</v>
@@ -1356,7 +1364,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -1439,8 +1447,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1461,7 +1469,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" x14ac:dyDescent="0.15">

--- a/config_debug/act_027_qyzl_config.xlsx
+++ b/config_debug/act_027_qyzl_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_9.28\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="77">
   <si>
     <t>index</t>
   </si>
@@ -254,9 +254,6 @@
     <t>4.苹果大战的数据不计入活动统计。</t>
   </si>
   <si>
-    <t>5.活动结束后，未领取的奖励视为自动放弃。</t>
-  </si>
-  <si>
     <t>累计消耗1万金币</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -287,6 +284,14 @@
   </si>
   <si>
     <t>1.活动时间：9月28日08:00:00—11月1日23:59:59。</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.活动结束后，未领取的奖励视为自动放弃。</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.疯狂捕鱼数据只计50%。</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -792,13 +797,13 @@
         <v>0</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E2" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="F2" s="14" t="s">
         <v>73</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -815,7 +820,7 @@
         <v>6</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F3" s="9" t="s">
         <v>7</v>
@@ -1364,7 +1369,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
@@ -1445,10 +1450,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1469,7 +1474,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" x14ac:dyDescent="0.15">
@@ -1501,7 +1506,15 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>70</v>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
